--- a/docs/mcode-r4/onco-core-CancerStageGroup.xlsx
+++ b/docs/mcode-r4/onco-core-CancerStageGroup.xlsx
@@ -358,7 +358,7 @@
 </t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -412,7 +412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/onco-core-CancerStageGroup.xlsx
+++ b/docs/mcode-r4/onco-core-CancerStageGroup.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="416">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>onco-core-CancerStageGroup</t>
   </si>
   <si>
-    <t>A panel that contains cancer staging information. This class is the parent of panels containing information related to clinical and pathologic staging, including TNMClinicalStageGroup and TNMPathologicStageGroup.</t>
+    <t>A panel that contains cancer staging information. This class is the parent of classes containing information related to clinical and pathologic staging, including TNMClinicalStageGroup and TNMPathologicStageGroup.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -341,24 +341,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>primarycancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition-extension}
-</t>
-  </si>
-  <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -613,7 +596,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition)
 </t>
   </si>
   <si>
@@ -1484,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1494,7 +1477,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2550,17 +2533,19 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2595,39 +2580,43 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2675,7 +2664,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2699,7 +2688,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2714,7 +2703,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2727,25 +2716,23 @@
         <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2794,7 +2781,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2809,19 +2796,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2829,11 +2816,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2852,17 +2839,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2911,7 +2898,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2926,19 +2913,19 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -2946,11 +2933,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2969,18 +2956,18 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3028,7 +3015,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3043,16 +3030,16 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3063,41 +3050,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3121,13 +3110,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3145,13 +3134,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3160,19 +3149,19 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3180,7 +3169,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3188,7 +3177,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>55</v>
@@ -3197,25 +3186,25 @@
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3240,13 +3229,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3264,13 +3253,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3279,19 +3268,19 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3299,15 +3288,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>55</v>
@@ -3319,22 +3308,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3359,37 +3348,37 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X16" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3398,31 +3387,31 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3441,19 +3430,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3478,13 +3467,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3502,10 +3491,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3517,27 +3506,27 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3545,10 +3534,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3560,20 +3549,18 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3621,13 +3608,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3636,19 +3623,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3656,18 +3643,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3679,18 +3666,20 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3738,13 +3727,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3753,19 +3742,19 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3773,11 +3762,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3796,19 +3785,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3857,7 +3846,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3872,19 +3861,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3892,11 +3881,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3915,20 +3904,18 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3976,7 +3963,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3991,19 +3978,19 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4011,7 +3998,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4022,7 +4009,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4034,18 +4021,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4093,13 +4080,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4108,19 +4095,19 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4128,7 +4115,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4136,10 +4123,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4151,17 +4138,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4210,42 +4199,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4253,10 +4242,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4265,22 +4254,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4305,13 +4294,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4329,7 +4318,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4338,7 +4327,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>45</v>
@@ -4347,35 +4336,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4387,19 +4376,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4424,13 +4413,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4448,16 +4437,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>45</v>
@@ -4466,35 +4455,35 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4506,19 +4495,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4543,31 +4532,31 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4585,24 +4574,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4613,7 +4602,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4625,20 +4614,18 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4662,13 +4649,11 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4686,13 +4671,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4704,24 +4689,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4732,7 +4717,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4744,18 +4729,20 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4779,29 +4766,29 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4819,24 +4806,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4847,7 +4834,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -4859,20 +4846,18 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4896,11 +4881,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4918,7 +4905,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4936,24 +4923,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4976,16 +4963,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5035,7 +5022,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5053,24 +5040,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5093,18 +5080,20 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5152,42 +5141,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5198,7 +5187,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5210,20 +5199,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5271,19 +5256,19 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5292,10 +5277,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5306,18 +5291,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5329,15 +5314,17 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5386,13 +5373,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5410,7 +5397,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5421,11 +5408,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5438,16 +5425,16 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>326</v>
@@ -5455,7 +5442,9 @@
       <c r="M34" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5527,7 +5516,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5542,26 +5531,26 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>330</v>
@@ -5569,12 +5558,8 @@
       <c r="L35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5622,17 +5607,17 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AI35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5643,10 +5628,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5657,7 +5642,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5680,13 +5665,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5737,7 +5722,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5746,7 +5731,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>45</v>
@@ -5758,10 +5743,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5772,7 +5757,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5795,16 +5780,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>334</v>
+        <v>150</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5828,13 +5817,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5852,7 +5841,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5861,7 +5850,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>45</v>
@@ -5870,13 +5859,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5887,7 +5876,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5898,7 +5887,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5910,19 +5899,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5947,13 +5936,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5971,13 +5960,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5989,13 +5978,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6006,7 +5995,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6017,7 +6006,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6029,19 +6018,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>155</v>
+        <v>356</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6066,13 +6053,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6090,13 +6077,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6108,13 +6095,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6125,7 +6112,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6148,7 +6135,7 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>362</v>
@@ -6157,9 +6144,7 @@
         <v>363</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6207,7 +6192,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6228,10 +6213,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6242,7 +6227,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6253,7 +6238,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6262,10 +6247,10 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>367</v>
@@ -6273,7 +6258,9 @@
       <c r="L41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6322,13 +6309,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6343,10 +6330,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6357,7 +6344,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6380,16 +6367,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6439,7 +6426,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6460,10 +6447,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6474,7 +6461,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6485,7 +6472,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6497,7 +6484,7 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>379</v>
@@ -6508,7 +6495,9 @@
       <c r="M43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6556,7 +6545,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6568,7 +6557,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6577,10 +6566,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6591,7 +6580,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6602,7 +6591,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6611,23 +6600,19 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6675,19 +6660,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6696,10 +6681,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6710,18 +6695,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6733,15 +6718,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M45" s="2"/>
+      <c r="M45" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6790,13 +6777,13 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -6814,7 +6801,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6825,11 +6812,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6842,16 +6829,16 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>326</v>
@@ -6859,7 +6846,9 @@
       <c r="M46" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6931,7 +6920,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6942,42 +6931,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>103</v>
+        <v>392</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7002,13 +6991,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7026,13 +7015,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7044,16 +7033,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7069,7 +7058,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7084,19 +7073,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>155</v>
+        <v>395</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>232</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>397</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7121,13 +7110,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7148,7 +7137,7 @@
         <v>394</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7166,16 +7155,16 @@
         <v>398</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7200,22 +7189,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>402</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7240,13 +7229,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7273,7 +7262,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>45</v>
@@ -7282,35 +7271,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7322,19 +7311,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>405</v>
+        <v>252</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>253</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
+        <v>254</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7359,13 +7348,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7383,16 +7372,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>45</v>
@@ -7401,28 +7390,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7441,19 +7430,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>257</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7478,13 +7467,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7502,7 +7491,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7520,24 +7509,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7548,7 +7537,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7560,20 +7549,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>316</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7621,13 +7606,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>318</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7642,10 +7627,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7656,18 +7641,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7679,15 +7664,17 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M53" s="2"/>
+      <c r="M53" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7736,13 +7723,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7760,7 +7747,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7771,11 +7758,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7788,16 +7775,16 @@
         <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>326</v>
@@ -7805,7 +7792,9 @@
       <c r="M54" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7877,7 +7866,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7888,30 +7877,30 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>330</v>
@@ -7919,12 +7908,8 @@
       <c r="L55" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -7972,17 +7957,17 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH55" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AI55" t="s" s="2">
         <v>45</v>
       </c>
@@ -7993,10 +7978,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8007,7 +7992,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8030,13 +8015,13 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8087,7 +8072,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8096,7 +8081,7 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>45</v>
@@ -8108,10 +8093,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8122,7 +8107,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8145,16 +8130,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>334</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8178,13 +8167,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8202,7 +8191,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8211,7 +8200,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
@@ -8220,13 +8209,13 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8237,7 +8226,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8248,7 +8237,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8260,19 +8249,19 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8297,13 +8286,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8321,13 +8310,13 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8339,13 +8328,13 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8356,7 +8345,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8367,7 +8356,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8379,19 +8368,17 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>155</v>
+        <v>356</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8416,13 +8403,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8440,13 +8427,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8458,13 +8445,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8475,7 +8462,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8498,7 +8485,7 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>362</v>
@@ -8507,9 +8494,7 @@
         <v>363</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8557,7 +8542,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8578,135 +8563,20 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO61" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO61">
+  <autoFilter ref="A1:AO60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8716,7 +8586,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
